--- a/dist/PSXSymbols.xlsx
+++ b/dist/PSXSymbols.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Python_PSX_Stock_Scanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25352971-99CB-4A54-9F1E-923C71A5C25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF94DB84-9A6E-476C-9DDF-08ADFD6F953E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{3F91CB41-9821-4D9A-973E-13C63C7D8708}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{3F91CB41-9821-4D9A-973E-13C63C7D8708}"/>
   </bookViews>
   <sheets>
     <sheet name="MYLIST" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="266">
   <si>
     <t>MLCF</t>
   </si>
@@ -700,9 +700,6 @@
     <t>MARK</t>
   </si>
   <si>
-    <t>CBQK</t>
-  </si>
-  <si>
     <t>DUBK</t>
   </si>
   <si>
@@ -727,9 +724,6 @@
     <t>BRES</t>
   </si>
   <si>
-    <t>ABQK</t>
-  </si>
-  <si>
     <t>QATI</t>
   </si>
   <si>
@@ -790,9 +784,6 @@
     <t>QISI</t>
   </si>
   <si>
-    <t>DOHI</t>
-  </si>
-  <si>
     <t>QGRI</t>
   </si>
   <si>
@@ -836,9 +827,6 @@
   </si>
   <si>
     <t>QGMD</t>
-  </si>
-  <si>
-    <t>BEMA</t>
   </si>
   <si>
     <t>KSE100</t>
@@ -1912,12 +1900,12 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2095,12 +2083,12 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2447,12 +2435,12 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3535,12 +3523,12 @@
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3554,10 +3542,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFE23DA-1E37-4AB0-A620-D635E6533091}">
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3809,27 +3797,7 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3841,7 +3809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8ED9EAE-1B43-47FE-9FEF-A9FEA7FC572F}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
@@ -3852,7 +3820,7 @@
         <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3860,7 +3828,7 @@
         <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3868,7 +3836,7 @@
         <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3876,7 +3844,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3884,7 +3852,7 @@
         <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -3892,7 +3860,7 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -3900,7 +3868,7 @@
         <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -3908,7 +3876,7 @@
         <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -3916,7 +3884,7 @@
         <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -3924,7 +3892,7 @@
         <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -3932,7 +3900,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -3940,7 +3908,7 @@
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -3948,7 +3916,7 @@
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -3956,7 +3924,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -3964,7 +3932,7 @@
         <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -3972,7 +3940,7 @@
         <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -3980,7 +3948,7 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -3988,7 +3956,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -3996,7 +3964,7 @@
         <v>164</v>
       </c>
       <c r="B19" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -4004,7 +3972,7 @@
         <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -4012,7 +3980,7 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -4020,23 +3988,23 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B23" t="s">
         <v>265</v>
-      </c>
-      <c r="B23" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B24" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
